--- a/document/技术详细设计.xlsx
+++ b/document/技术详细设计.xlsx
@@ -1,22 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Node.js" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Mysql</t>
+  </si>
+  <si>
+    <t>Module List</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DB connetion driver to mysql</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,14 +73,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +381,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/技术详细设计.xlsx
+++ b/document/技术详细设计.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Node.js" sheetId="2" r:id="rId2"/>
+    <sheet name="Node.js" sheetId="2" r:id="rId1"/>
+    <sheet name="Server Auth Rule" sheetId="3" r:id="rId2"/>
+    <sheet name="Encrypt" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Mysql</t>
   </si>
@@ -30,6 +31,66 @@
   </si>
   <si>
     <t>DB connetion driver to mysql</t>
+  </si>
+  <si>
+    <t>1. Will request a auth key from server</t>
+  </si>
+  <si>
+    <t>2. Auth key will expire in defined time</t>
+  </si>
+  <si>
+    <t>3. Once auth key is used, it will be expired as the same</t>
+  </si>
+  <si>
+    <t>4. Server will cache auth key in server memory within defined memory size</t>
+  </si>
+  <si>
+    <t>5. If the max memory size is reached, the key will be saved into database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. key will be saved as hashkey - expire time  pair. </t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>Restify</t>
+  </si>
+  <si>
+    <t>WatchDog and server maintain</t>
+  </si>
+  <si>
+    <t>Sql server</t>
+  </si>
+  <si>
+    <t>forever</t>
+  </si>
+  <si>
+    <t>Restful Service</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Async control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web server </t>
+  </si>
+  <si>
+    <t>1. All username should be encrypted by DES</t>
+  </si>
+  <si>
+    <t>2. All password should be encrypted by MD5</t>
+  </si>
+  <si>
+    <t>7. if the key is saved in database, it will have additonal "_db" at the tail when being sent back (in DB, no additonal words there)</t>
+  </si>
+  <si>
+    <t>8. If the key is saved in memory, "_me" will be added as the same</t>
   </si>
 </sst>
 </file>
@@ -73,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,22 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,8 +478,128 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/技术详细设计.xlsx
+++ b/document/技术详细设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Node.js" sheetId="2" r:id="rId1"/>
@@ -81,23 +81,23 @@
     <t xml:space="preserve">Web server </t>
   </si>
   <si>
-    <t>1. All username should be encrypted by DES</t>
-  </si>
-  <si>
-    <t>2. All password should be encrypted by MD5</t>
-  </si>
-  <si>
     <t>7. if the key is saved in database, it will have additonal "_db" at the tail when being sent back (in DB, no additonal words there)</t>
   </si>
   <si>
     <t>8. If the key is saved in memory, "_me" will be added as the same</t>
+  </si>
+  <si>
+    <t>http://www.w3cplus.com/content/css3-font-face</t>
+  </si>
+  <si>
+    <t>https://icomoon.io/app/#/select</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,17 +139,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
@@ -566,12 +577,12 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +592,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>22</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" location="/select"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/技术详细设计.xlsx
+++ b/document/技术详细设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Node.js" sheetId="2" r:id="rId1"/>
     <sheet name="Server Auth Rule" sheetId="3" r:id="rId2"/>
     <sheet name="Encrypt" sheetId="4" r:id="rId3"/>
+    <sheet name="Thumbnail Generation " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Mysql</t>
   </si>
@@ -91,6 +92,24 @@
   </si>
   <si>
     <t>https://icomoon.io/app/#/select</t>
+  </si>
+  <si>
+    <t>There are 2 approaches</t>
+  </si>
+  <si>
+    <t>Approach 1 :</t>
+  </si>
+  <si>
+    <t>Use OSS image dealing services</t>
+  </si>
+  <si>
+    <t>Approach 2:</t>
+  </si>
+  <si>
+    <t>Add a field named "isThumbnail" to image table</t>
+  </si>
+  <si>
+    <t>use nodejs server to check the new added image periodically, and generate the thumbnail for image (change isThumbnail from 0 to 1)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -617,4 +636,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/技术详细设计.xlsx
+++ b/document/技术详细设计.xlsx
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,18 +663,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
